--- a/biology/Zoologie/Calycopis_isobeon/Calycopis_isobeon.xlsx
+++ b/biology/Zoologie/Calycopis_isobeon/Calycopis_isobeon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calycopis isobeon est une espèce de papillons de la famille des Lycaenidae, de la sous-famille des Theclinae et du genre Calycopis.
 </t>
@@ -511,11 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Calycopis isobeon a été nommé par Arthur Butler et Herbert Druce en 1872.
-Calycopis isobeon se nomme en anglais Dusky Blue Hairstreak[1].
-Pour certains Calycopis isobeon et Calycopis cecrops sont deux espèces distinctes, tandis que pour d'autres il s'agit de la même espèce[2].
+Calycopis isobeon se nomme en anglais Dusky Blue Hairstreak.
+Pour certains Calycopis isobeon et Calycopis cecrops sont deux espèces distinctes, tandis que pour d'autres il s'agit de la même espèce.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce petit papillon, d'une envergure de 22 à 32 mm, possède deux queues à chaque aile postérieure. Le dessus est beige grisé suffusé de bleu.
-Le revers est orné d'une bande orange zébrée d'une fine ligne blanche et d'ocelles marginaux postérieurs orange centrés de noir[3].
+Le revers est orné d'une bande orange zébrée d'une fine ligne blanche et d'ocelles marginaux postérieurs orange centrés de noir.
 </t>
         </is>
       </c>
@@ -578,10 +594,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole de mars à octobre[2].
-Plantes hôtes
-Les chenilles se nourrissent de feuilles mortes et de fruits[3].
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole de mars à octobre.
 </t>
         </is>
       </c>
@@ -607,16 +626,125 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles se nourrissent de feuilles mortes et de fruits.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Calycopis_isobeon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calycopis_isobeon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside dans le Sud des États-Unis (principalement au Texas et au Mississippi), au Mexique, à Belize et au Costa Rica[1],[3].
-Biotope
-Il se trouve dans les vallées de climat subtropical.
-Protection
-Pas de statut de protection particulier[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans le Sud des États-Unis (principalement au Texas et au Mississippi), au Mexique, à Belize et au Costa Rica,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Calycopis_isobeon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calycopis_isobeon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se trouve dans les vallées de climat subtropical.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Calycopis_isobeon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calycopis_isobeon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
